--- a/2 курс 1 семестр/ИТ/П50-4-21 Игошев Р.В, Практические работы по ИТ.xlsx
+++ b/2 курс 1 семестр/ИТ/П50-4-21 Игошев Р.В, Практические работы по ИТ.xlsx
@@ -1414,142 +1414,200 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,64 +1691,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1854,6 +1854,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0795-4009-9B88-312DC917AC85}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1874,6 +1879,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0795-4009-9B88-312DC917AC85}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1894,6 +1904,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0795-4009-9B88-312DC917AC85}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1914,6 +1929,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0795-4009-9B88-312DC917AC85}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1934,6 +1954,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0795-4009-9B88-312DC917AC85}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2072,7 +2097,635 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Успехи</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> в учёбе</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22624759405074366"/>
+          <c:y val="0.14856481481481484"/>
+          <c:w val="0.71969685039370079"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ПР№10!$B$42:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>% успеваемости</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% качества</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ПР№10!$F$42:$F$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D152-4C16-9B22-C637A19206AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="344461560"/>
+        <c:axId val="344461888"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$B$42:$B$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>% успеваемости</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>% качества</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$C$42:$C$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D152-4C16-9B22-C637A19206AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$B$42:$B$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>% успеваемости</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>% качества</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$D$42:$D$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D152-4C16-9B22-C637A19206AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$B$42:$B$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>% успеваемости</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>% качества</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$E$42:$E$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D152-4C16-9B22-C637A19206AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$B$42:$B$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>% успеваемости</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>% качества</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$G$42:$G$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D152-4C16-9B22-C637A19206AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$B$42:$B$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>% успеваемости</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>% качества</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ПР№10!$H$42:$H$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-D152-4C16-9B22-C637A19206AC}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344461560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344461888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344461888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344461560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2631,6 +3284,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2658,6 +3816,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>608853</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8218</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2932,7 +4120,7 @@
   <dimension ref="B1:T13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2955,32 +4143,32 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="2:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -3730,7 +4918,7 @@
   <dimension ref="B1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:I9"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3747,156 +4935,156 @@
   <sheetData>
     <row r="1" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="92"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="112"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="95"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="115"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="108" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="128" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108" t="s">
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="109"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="129"/>
     </row>
     <row r="5" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="111"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="113"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="133"/>
     </row>
     <row r="6" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="103" t="s">
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="114" t="s">
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="116"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="136"/>
     </row>
     <row r="7" spans="2:22" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="98"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="117" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="M7" s="88" t="s">
+      <c r="M7" s="106" t="s">
         <v>102</v>
       </c>
       <c r="N7" s="37" t="s">
@@ -3914,23 +5102,23 @@
       <c r="R7" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="106" t="s">
+      <c r="S7" s="126" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="99"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="89"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="34">
         <v>5</v>
       </c>
@@ -3946,11 +5134,11 @@
       <c r="R8" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="S8" s="107"/>
-      <c r="U8" s="136" t="s">
+      <c r="S8" s="127"/>
+      <c r="U8" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="V8" s="136" t="s">
+      <c r="V8" s="55" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3992,11 +5180,11 @@
       <c r="M9" s="29">
         <v>6</v>
       </c>
-      <c r="N9" s="118">
+      <c r="N9" s="44">
         <f>COUNTIF($D9:$I9,N$8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="120">
+      <c r="O9" s="46">
         <f>COUNTIF(D9:I9,O$8)</f>
         <v>0</v>
       </c>
@@ -4008,19 +5196,19 @@
         <f>COUNTIF(D9:I9,Q$8)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="121">
+      <c r="R9" s="47">
         <f>COUNTIF(D9:I9,R$8)</f>
         <v>6</v>
       </c>
-      <c r="S9" s="122">
+      <c r="S9" s="48">
         <f>(IF(D9 = "н/я", 0, D9) + IF(E9 = "н/я", 0, E9) +  IF(F9 = "н/я", 0, F9) +  IF(G9 = "н/я", 0, G9) + IF(H9 = "н/я", 0, H9) + IF(I9 = "н/я", 0, I9))/6</f>
         <v>0</v>
       </c>
-      <c r="U9" s="137">
+      <c r="U9" s="56">
         <f>IF(SUM(Q9:R9) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="136">
+      <c r="V9" s="55">
         <f>IF(SUM(P9:R9) = 0, 1, 0)</f>
         <v>0</v>
       </c>
@@ -4084,15 +5272,15 @@
         <f t="shared" ref="R10:R33" si="6">COUNTIF(D10:I10,R$8)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="123">
+      <c r="S10" s="49">
         <f t="shared" ref="S10:S33" si="7">(IF(D10 = "н/я", 0, D10) + IF(E10 = "н/я", 0, E10) +  IF(F10 = "н/я", 0, F10) +  IF(G10 = "н/я", 0, G10) + IF(H10 = "н/я", 0, H10) + IF(I10 = "н/я", 0, I10))/6</f>
         <v>4</v>
       </c>
-      <c r="U10" s="137">
+      <c r="U10" s="56">
         <f>IF(SUM(Q10:R10) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="136">
+      <c r="V10" s="55">
         <f t="shared" ref="V10:V33" si="8">IF(SUM(P10:R10) = 0, 1, 0)</f>
         <v>0</v>
       </c>
@@ -4156,15 +5344,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S11" s="123">
+      <c r="S11" s="49">
         <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="U11" s="137">
+      <c r="U11" s="56">
         <f t="shared" ref="U11:U28" si="9">IF(SUM(Q11:R11) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="136">
+      <c r="V11" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4228,15 +5416,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S12" s="123">
+      <c r="S12" s="49">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="U12" s="137">
+      <c r="U12" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V12" s="136">
+      <c r="V12" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4300,15 +5488,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S13" s="123">
+      <c r="S13" s="49">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="U13" s="137">
+      <c r="U13" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V13" s="136">
+      <c r="V13" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4372,15 +5560,15 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="S14" s="123">
+      <c r="S14" s="49">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="U14" s="137">
+      <c r="U14" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V14" s="136">
+      <c r="V14" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4444,15 +5632,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S15" s="123">
+      <c r="S15" s="49">
         <f t="shared" si="7"/>
         <v>2.8333333333333335</v>
       </c>
-      <c r="U15" s="137">
+      <c r="U15" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V15" s="136">
+      <c r="V15" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4516,15 +5704,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S16" s="123">
+      <c r="S16" s="49">
         <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="U16" s="137">
+      <c r="U16" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V16" s="136">
+      <c r="V16" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4588,15 +5776,15 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S17" s="123">
+      <c r="S17" s="49">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U17" s="137">
+      <c r="U17" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V17" s="136">
+      <c r="V17" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4660,15 +5848,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S18" s="123">
+      <c r="S18" s="49">
         <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
-      <c r="U18" s="137">
+      <c r="U18" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V18" s="136">
+      <c r="V18" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4732,15 +5920,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S19" s="123">
+      <c r="S19" s="49">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U19" s="137">
+      <c r="U19" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V19" s="136">
+      <c r="V19" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4804,15 +5992,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S20" s="123">
+      <c r="S20" s="49">
         <f t="shared" si="7"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="U20" s="137">
+      <c r="U20" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V20" s="136">
+      <c r="V20" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4876,15 +6064,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S21" s="123">
+      <c r="S21" s="49">
         <f t="shared" si="7"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="U21" s="137">
+      <c r="U21" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V21" s="136">
+      <c r="V21" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -4948,15 +6136,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S22" s="123">
+      <c r="S22" s="49">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U22" s="137">
+      <c r="U22" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V22" s="136">
+      <c r="V22" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5020,15 +6208,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S23" s="123">
+      <c r="S23" s="49">
         <f t="shared" si="7"/>
         <v>3.8333333333333335</v>
       </c>
-      <c r="U23" s="137">
+      <c r="U23" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V23" s="136">
+      <c r="V23" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5092,15 +6280,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S24" s="123">
+      <c r="S24" s="49">
         <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="U24" s="137">
+      <c r="U24" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V24" s="136">
+      <c r="V24" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5164,15 +6352,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S25" s="123">
+      <c r="S25" s="49">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U25" s="137">
+      <c r="U25" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V25" s="136">
+      <c r="V25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5189,19 +6377,19 @@
         <v>5</v>
       </c>
       <c r="E26" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="17">
         <v>5</v>
       </c>
       <c r="I26" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="18">
         <f t="shared" si="1"/>
@@ -5218,35 +6406,35 @@
       </c>
       <c r="N26" s="18">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26" s="42">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="42">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="42">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S26" s="123">
+      <c r="S26" s="49">
         <f t="shared" si="7"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="U26" s="137">
+        <v>5</v>
+      </c>
+      <c r="U26" s="56">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="136">
+        <v>1</v>
+      </c>
+      <c r="V26" s="55">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.3">
@@ -5308,15 +6496,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S27" s="123">
+      <c r="S27" s="49">
         <f t="shared" si="7"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="U27" s="137">
+      <c r="U27" s="56">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V27" s="136">
+      <c r="V27" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5380,15 +6568,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S28" s="123">
+      <c r="S28" s="49">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="U28" s="137">
+      <c r="U28" s="56">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="V28" s="136">
+      <c r="V28" s="55">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5452,15 +6640,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S29" s="123">
+      <c r="S29" s="49">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="U29" s="137">
+      <c r="U29" s="56">
         <f>IF(SUM(Q29:R29) = 0, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="V29" s="136">
+      <c r="V29" s="55">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -5524,15 +6712,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S30" s="123">
+      <c r="S30" s="49">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="U30" s="137">
+      <c r="U30" s="56">
         <f>IF(SUM(Q30:R30) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="136">
+      <c r="V30" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5596,15 +6784,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S31" s="123">
+      <c r="S31" s="49">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="U31" s="137">
+      <c r="U31" s="56">
         <f t="shared" ref="U31:U33" si="10">IF(SUM(Q31:R31) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="V31" s="136">
+      <c r="V31" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5635,7 +6823,7 @@
       <c r="I32" s="27">
         <v>5</v>
       </c>
-      <c r="J32" s="119">
+      <c r="J32" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5648,7 +6836,7 @@
       <c r="M32" s="27">
         <v>8</v>
       </c>
-      <c r="N32" s="119">
+      <c r="N32" s="45">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -5668,15 +6856,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S32" s="123">
+      <c r="S32" s="49">
         <f t="shared" si="7"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="U32" s="137">
+      <c r="U32" s="56">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V32" s="136">
+      <c r="V32" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5693,7 +6881,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="25">
         <v>5</v>
@@ -5730,31 +6918,31 @@
       </c>
       <c r="P33" s="43">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33" s="43">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S33" s="123">
+      <c r="S33" s="49">
         <f t="shared" si="7"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="U33" s="137">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="U33" s="56">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="136">
+        <v>1</v>
+      </c>
+      <c r="V33" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:22" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="58" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="38">
@@ -5764,17 +6952,17 @@
         <f>COUNTIF(D1:D33, $C34)</f>
         <v>10</v>
       </c>
-      <c r="E34" s="120">
-        <f t="shared" ref="E34:I39" si="11">COUNTIF(E1:E33, $C34)</f>
-        <v>4</v>
+      <c r="E34" s="46">
+        <f t="shared" ref="E34:I38" si="11">COUNTIF(E1:E33, $C34)</f>
+        <v>5</v>
       </c>
       <c r="F34" s="21">
         <f t="shared" ref="F34:F38" si="12">COUNTIF(F1:F33, $C34)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="21">
         <f t="shared" ref="G34:G38" si="13">COUNTIF(G1:G33, $C34)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H34" s="29">
         <f>COUNTIF(H1:H33, $C34)</f>
@@ -5782,48 +6970,48 @@
       </c>
       <c r="I34" s="20">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="J34" s="78">
+        <v>13</v>
+      </c>
+      <c r="J34" s="93">
         <f>SUM(J9:J33)</f>
         <v>513</v>
       </c>
-      <c r="K34" s="81">
+      <c r="K34" s="96">
         <f>SUM(K9:K33)</f>
         <v>325</v>
       </c>
-      <c r="L34" s="81">
+      <c r="L34" s="96">
         <f>SUM(L9:L33)</f>
         <v>188</v>
       </c>
-      <c r="M34" s="84">
+      <c r="M34" s="99">
         <f>SUM(M9:M33)</f>
         <v>137</v>
       </c>
-      <c r="N34" s="129">
+      <c r="N34" s="102">
         <f>AVERAGE(N9:N33)</f>
-        <v>1.84</v>
-      </c>
-      <c r="O34" s="133">
+        <v>2</v>
+      </c>
+      <c r="O34" s="70">
         <f t="shared" ref="O34:R34" si="14">AVERAGE(O9:O33)</f>
-        <v>0.92</v>
-      </c>
-      <c r="P34" s="133">
+        <v>0.88</v>
+      </c>
+      <c r="P34" s="70">
         <f t="shared" ref="P34" si="15">AVERAGE(P9:P33)</f>
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q34" s="133">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q34" s="70">
         <f t="shared" ref="Q34" si="16">AVERAGE(Q9:Q33)</f>
-        <v>1.72</v>
-      </c>
-      <c r="R34" s="132">
+        <v>1.64</v>
+      </c>
+      <c r="R34" s="75">
         <f t="shared" si="14"/>
         <v>0.36</v>
       </c>
       <c r="S34" s="10"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="19">
         <v>4</v>
       </c>
@@ -5833,11 +7021,11 @@
       </c>
       <c r="E35" s="42">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="42">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="42">
         <f t="shared" si="13"/>
@@ -5849,21 +7037,21 @@
       </c>
       <c r="I35" s="16">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="61"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="94"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="76"/>
       <c r="S35" s="10"/>
     </row>
     <row r="36" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="56"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="19">
         <v>3</v>
       </c>
@@ -5873,7 +7061,7 @@
       </c>
       <c r="E36" s="42">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" s="42">
         <f t="shared" si="12"/>
@@ -5881,7 +7069,7 @@
       </c>
       <c r="G36" s="42">
         <f t="shared" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H36" s="42">
         <f t="shared" si="18"/>
@@ -5891,33 +7079,33 @@
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="J36" s="80"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="131"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="62"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="77"/>
       <c r="S36" s="10"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="19">
         <v>2</v>
       </c>
-      <c r="D37" s="119">
+      <c r="D37" s="45">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="E37" s="42">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="42">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="42">
         <f t="shared" si="13"/>
@@ -5927,26 +7115,26 @@
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="I37" s="124">
+      <c r="I37" s="50">
         <f>COUNTIF(I4:I36, $C37)</f>
         <v>4</v>
       </c>
-      <c r="J37" s="63" t="s">
+      <c r="J37" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="72" t="s">
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="74"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="89"/>
     </row>
     <row r="38" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="56"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="15" t="s">
         <v>92</v>
       </c>
@@ -5974,54 +7162,54 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="73"/>
-      <c r="R38" s="74"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="89"/>
     </row>
     <row r="39" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="125">
+      <c r="C39" s="67"/>
+      <c r="D39" s="51">
         <f>((D34*5) + (D35*4) + (D36*3) + (D37*2))/(D34+D35+D36+D37+D38)</f>
         <v>3.5384615384615383</v>
       </c>
-      <c r="E39" s="126">
+      <c r="E39" s="52">
         <f t="shared" ref="E39:I39" si="19">((E34*5) + (E35*4) + (E36*3) + (E37*2))/(E34+E35+E36+E37+E38)</f>
-        <v>2.8461538461538463</v>
-      </c>
-      <c r="F39" s="126">
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="F39" s="52">
         <f t="shared" ref="F39" si="20">((F34*5) + (F35*4) + (F36*3) + (F37*2))/(F34+F35+F36+F37+F38)</f>
-        <v>3.0769230769230771</v>
-      </c>
-      <c r="G39" s="126">
+        <v>3.16</v>
+      </c>
+      <c r="G39" s="52">
         <f t="shared" ref="G39" si="21">((G34*5) + (G35*4) + (G36*3) + (G37*2))/(G34+G35+G36+G37+G38)</f>
-        <v>3.2692307692307692</v>
-      </c>
-      <c r="H39" s="127">
+        <v>3.3461538461538463</v>
+      </c>
+      <c r="H39" s="53">
         <f t="shared" ref="H39" si="22">((H34*5) + (H35*4) + (H36*3) + (H37*2))/(H34+H35+H36+H37+H38)</f>
         <v>3.0769230769230771</v>
       </c>
-      <c r="I39" s="128">
+      <c r="I39" s="54">
         <f t="shared" si="19"/>
-        <v>3.9230769230769229</v>
-      </c>
-      <c r="J39" s="69"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="77"/>
+        <v>3.9615384615384617</v>
+      </c>
+      <c r="J39" s="84"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="91"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="91"/>
+      <c r="R39" s="92"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
@@ -6043,18 +7231,18 @@
       <c r="R40" s="10"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="53">
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="68">
         <f>AVERAGE(D39:I39)</f>
-        <v>3.2884615384615383</v>
-      </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+        <v>3.3343589743589752</v>
+      </c>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
@@ -6067,18 +7255,18 @@
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="134">
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62">
         <f>SUM(U9:U33)/25</f>
-        <v>0.12</v>
-      </c>
-      <c r="G42" s="135"/>
-      <c r="H42" s="135"/>
+        <v>0.2</v>
+      </c>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="12"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -6091,18 +7279,18 @@
       <c r="R42" s="10"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="134">
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62">
         <f>SUM(V9:V33)/25</f>
-        <v>0.08</v>
-      </c>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
+        <v>0.12</v>
+      </c>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -6131,6 +7319,7 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="P34:P36"/>
     <mergeCell ref="Q34:Q36"/>
     <mergeCell ref="I7:I8"/>
@@ -6146,17 +7335,16 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
@@ -6181,33 +7369,33 @@
       </c>
       <c r="B1">
         <f t="shared" ref="B1:F16" ca="1" si="0">RANDBETWEEN(2,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f t="shared" ref="A2:A25" ca="1" si="1">RANDBETWEEN(0, 10)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
@@ -6219,55 +7407,55 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -6275,39 +7463,39 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
@@ -6315,41 +7503,41 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
@@ -6359,7 +7547,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
@@ -6367,25 +7555,25 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
@@ -6393,7 +7581,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -6401,43 +7589,43 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
@@ -6445,37 +7633,37 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
@@ -6483,25 +7671,25 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -6519,29 +7707,29 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
@@ -6549,11 +7737,11 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
@@ -6561,13 +7749,13 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
@@ -6575,7 +7763,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
@@ -6587,33 +7775,33 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:F25" ca="1" si="2">RANDBETWEEN(2,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -6623,37 +7811,37 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
@@ -6665,21 +7853,21 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
@@ -6687,17 +7875,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
@@ -6705,11 +7893,11 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
@@ -6723,19 +7911,19 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
@@ -6749,19 +7937,19 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
@@ -6775,7 +7963,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
@@ -6787,7 +7975,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
@@ -6795,25 +7983,25 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
